--- a/src/test/resources/Testdata/Data.xlsx
+++ b/src/test/resources/Testdata/Data.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10185"/>
   </bookViews>
   <sheets>
-    <sheet name="Logindata" sheetId="1" r:id="rId1"/>
+    <sheet name="Signupdata" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -355,8 +355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/Testdata/Data.xlsx
+++ b/src/test/resources/Testdata/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -36,6 +36,30 @@
   </si>
   <si>
     <t>narasimharao123</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>sureh12</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>mahi123</t>
+  </si>
+  <si>
+    <t>Naresh</t>
+  </si>
+  <si>
+    <t>mnaresh124</t>
+  </si>
+  <si>
+    <t>Ramesh456</t>
+  </si>
+  <si>
+    <t>ramu12</t>
   </si>
 </sst>
 </file>
@@ -353,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,6 +405,38 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Testdata/Data.xlsx
+++ b/src/test/resources/Testdata/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>username</t>
   </si>
@@ -60,16 +60,54 @@
   </si>
   <si>
     <t>ramu12</t>
+  </si>
+  <si>
+    <t>Arunkumar</t>
+  </si>
+  <si>
+    <t>Arun@136</t>
+  </si>
+  <si>
+    <t>Sairam65</t>
+  </si>
+  <si>
+    <t>Sai12356</t>
+  </si>
+  <si>
+    <t>Philip97</t>
+  </si>
+  <si>
+    <t>Philip@97</t>
+  </si>
+  <si>
+    <t>Jhonsonroy</t>
+  </si>
+  <si>
+    <t>Jhon@567</t>
+  </si>
+  <si>
+    <t>Kesavrao</t>
+  </si>
+  <si>
+    <t>rao897</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,13 +130,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -377,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +478,52 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B9" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>